--- a/biology/Zoologie/Illacme_tobini/Illacme_tobini.xlsx
+++ b/biology/Zoologie/Illacme_tobini/Illacme_tobini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Illacme tobini est une espèce de myriapodes de la famille des Siphonorhinidae. C'est la seconde espèce décrite pour le genre Illacme.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Illacme tobini a été décrite en 2016 par les myriapodologistes américains Paul E. Marek (d), Jean K. Krejca (d) et William A. Shear[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Illacme tobini a été décrite en 2016 par les myriapodologistes américains Paul E. Marek (d), Jean K. Krejca (d) et William A. Shear.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Illacme tobini n'est pour l'instant connu que d'une seule grotte située dans le parc national de Sequoia en Californie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Illacme tobini n'est pour l'instant connu que d'une seule grotte située dans le parc national de Sequoia en Californie.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce possède 414 pattes, dont quatre gonopodes, des pattes faisant office de pénis[3],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce possède 414 pattes, dont quatre gonopodes, des pattes faisant office de pénis,.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, tobini, lui a été donnée en l'honneur de Ben Tobin, hydrologue au parc national du Grand Canyon, qui a permis de découvrir cette espèce ainsi que tant d'autres par ses nombreuses études dans les grottes aux États-Unis[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, tobini, lui a été donnée en l'honneur de Ben Tobin, hydrologue au parc national du Grand Canyon, qui a permis de découvrir cette espèce ainsi que tant d'autres par ses nombreuses études dans les grottes aux États-Unis.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Paul E. Marek, Jean K. Krejca et William A. Shear, « A new species of Illacme Cook &amp; Loomis, 1928 from Sequoia National Park, California, with a world catalog of the Siphonorhinidae (Diplopoda, Siphonophorida) », ZooKeys, Sofia, Pensoft Publishers (d), vol. 626, no 626,‎ 20 octobre 2016, p. 1-43 (ISSN 1313-2989 et 1313-2970, OCLC 248547717, PMID 27833431, PMCID 5096369, DOI 10.3897/ZOOKEYS.626.9681, lire en ligne)</t>
         </is>
